--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
   <si>
     <t>Action</t>
   </si>
@@ -265,12 +265,12 @@
     <t>Update_Nightly</t>
   </si>
   <si>
+    <t>Update Analysis table</t>
+  </si>
+  <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Update Analysis table</t>
-  </si>
-  <si>
     <t>[Core] UpdateFormulaForAllInstances</t>
   </si>
   <si>
@@ -292,6 +292,15 @@
     <t>updateMatrixColorRelationAllWorkflowStep (LIB_Workflow)</t>
   </si>
   <si>
+    <t>Update Matrix Status</t>
+  </si>
+  <si>
+    <t>Update Output table</t>
+  </si>
+  <si>
+    <t>Back Testing</t>
+  </si>
+  <si>
     <t>Attribute Name</t>
   </si>
   <si>
@@ -322,16 +331,19 @@
     <t/>
   </si>
   <si>
+    <t>MatrixStatus</t>
+  </si>
+  <si>
+    <t>LastUpdateOutput</t>
+  </si>
+  <si>
+    <t>LastUpdateBackTesting</t>
+  </si>
+  <si>
     <t>Execute in case of...</t>
   </si>
   <si>
     <t>of step...</t>
-  </si>
-  <si>
-    <t>Update Output table</t>
-  </si>
-  <si>
-    <t>LastUpdateOutput</t>
   </si>
 </sst>
 </file>
@@ -589,8 +601,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -622,54 +634,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9582150"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -685,7 +649,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -718,54 +682,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -781,7 +697,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -807,54 +723,6 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -903,54 +771,6 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1227,7 +1047,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1260,17 +1080,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="30" style="1" customWidth="1"/>
+    <col min="1" max="8" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.3">
@@ -1299,22 +1117,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1322,10 +1140,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1339,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1353,7 +1171,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1367,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1392,12 +1210,40 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1410,17 +1256,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="30" style="1" customWidth="1"/>
+    <col min="1" max="5" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,13 +1289,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1459,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,10 +1320,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,10 +1334,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1504,10 +1348,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1518,10 +1362,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1532,10 +1376,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1546,10 +1390,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1560,10 +1404,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1571,13 +1415,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1585,13 +1429,69 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Global Variables" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -310,9 +313,6 @@
     <t>Entity Type Name</t>
   </si>
   <si>
-    <t>Properties_Predictive</t>
-  </si>
-  <si>
     <t>LastVariableUpdateDate</t>
   </si>
   <si>
@@ -344,13 +344,16 @@
   </si>
   <si>
     <t>of step...</t>
+  </si>
+  <si>
+    <t>Analysis_Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -482,6 +485,12 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -509,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -572,6 +581,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,6 +644,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -675,6 +733,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -730,6 +836,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -771,6 +925,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1117,22 +1319,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="K1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="M1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1258,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1289,13 +1491,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,13 +1505,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
+      <c r="D3" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1317,13 +1519,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1331,13 +1533,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
+      <c r="D5" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1351,7 +1553,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1365,7 +1567,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1373,13 +1575,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1390,10 +1592,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1401,13 +1603,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1421,7 +1623,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1435,7 +1637,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1449,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1462,8 +1664,8 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1471,13 +1673,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1485,16 +1687,21 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
+      <c r="D16" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E16">
+    <sortState ref="A2:E16">
+      <sortCondition ref="B1:B16"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1505,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -692,6 +692,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -756,6 +804,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -884,6 +980,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -948,6 +1092,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1285,12 +1477,16 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="30" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.3">
@@ -1356,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1370,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1384,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1398,13 +1594,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1412,13 +1608,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1426,7 +1622,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1440,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1461,12 +1657,16 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="30" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -18,9 +18,9 @@
     <sheet name="Global Variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$9</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t>Action</t>
   </si>
@@ -280,24 +280,6 @@
     <t>Update variable</t>
   </si>
   <si>
-    <t>Update BM</t>
-  </si>
-  <si>
-    <t>Update DB Table</t>
-  </si>
-  <si>
-    <t>Update Color-grouped Information</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>updateMatrixColorRelationAllWorkflowStep (LIB_Workflow)</t>
-  </si>
-  <si>
-    <t>Update Matrix Status</t>
-  </si>
-  <si>
     <t>Update Output table</t>
   </si>
   <si>
@@ -316,24 +298,6 @@
     <t>LastVariableUpdateDate</t>
   </si>
   <si>
-    <t>LastUpdateResultTable</t>
-  </si>
-  <si>
-    <t>Business_Model</t>
-  </si>
-  <si>
-    <t>WarningScore_Matrix</t>
-  </si>
-  <si>
-    <t>Param1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>MatrixStatus</t>
-  </si>
-  <si>
     <t>LastUpdateOutput</t>
   </si>
   <si>
@@ -347,6 +311,27 @@
   </si>
   <si>
     <t>Analysis_Unit</t>
+  </si>
+  <si>
+    <t>Update Workspace Plane Status</t>
+  </si>
+  <si>
+    <t>Update Workspace Plane Table</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>[Commons] Evaluate Formula</t>
+  </si>
+  <si>
+    <t>LIB_EWS.UpdateWorkpalceTableAll();</t>
+  </si>
+  <si>
+    <t>Workspace_Plan</t>
   </si>
 </sst>
 </file>
@@ -493,7 +478,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +488,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAC2524"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -518,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -582,6 +579,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,6 +740,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -755,7 +851,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -798,7 +894,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -846,7 +942,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -860,6 +956,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11420475" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8515350" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -899,7 +1091,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -942,7 +1134,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -990,7 +1182,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1004,6 +1196,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9448800" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9448800" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1140,6 +1428,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1474,18 +1858,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1515,63 +1899,63 @@
         <v>8</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1579,13 +1963,13 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1593,55 +1977,27 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
+      <c r="B6" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D7" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1654,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1665,7 +2021,7 @@
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1690,214 +2046,158 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="B3" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
+      <c r="D8" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
+      <c r="B9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="B10" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B11" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
+      <c r="B12" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16">
+  <autoFilter ref="A1:E9">
     <sortState ref="A2:E16">
       <sortCondition ref="B1:B16"/>
     </sortState>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>Action</t>
   </si>
@@ -332,6 +332,21 @@
   </si>
   <si>
     <t>Workspace_Plan</t>
+  </si>
+  <si>
+    <t>Update Customer Table Source</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Update Customer Table Output</t>
+  </si>
+  <si>
+    <t>return LIB_EWS.UpdateCustomerUnitSource();</t>
+  </si>
+  <si>
+    <t>LIB_EWS.UpdateCustomerUnitOutput();</t>
   </si>
 </sst>
 </file>
@@ -472,13 +487,15 @@
       <name val="Trebuchet MS"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Trebuchet MS"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,18 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAC2524"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -515,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -578,10 +583,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,6 +837,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1076,6 +1125,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1316,6 +1413,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10153650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1524,6 +1669,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1858,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1918,87 +2111,151 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>17</v>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" t="s">
         <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" t="s">
         <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" t="s">
         <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>31</v>
+      <c r="B6" t="s">
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D8" t="s">
         <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2010,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2021,7 +2278,7 @@
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2046,27 +2303,27 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>20</v>
+      <c r="B2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>20</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2074,7 +2331,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
@@ -2088,13 +2345,13 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>15</v>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2102,63 +2359,63 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>19</v>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>19</v>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>29</v>
+      <c r="D9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
@@ -2169,31 +2426,59 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>30</v>
+      <c r="B11" t="s">
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>31</v>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
+      <c r="D14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Global Variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -328,9 +328,6 @@
     <t>[Commons] Evaluate Formula</t>
   </si>
   <si>
-    <t>LIB_EWS.UpdateWorkpalceTableAll();</t>
-  </si>
-  <si>
     <t>Workspace_Plan</t>
   </si>
   <si>
@@ -346,14 +343,17 @@
     <t>return LIB_EWS.UpdateCustomerUnitSource();</t>
   </si>
   <si>
-    <t>LIB_EWS.UpdateCustomerUnitOutput();</t>
+    <t>return LIB_EWS.UpdateCustomerUnitOutput();</t>
+  </si>
+  <si>
+    <t>return LIB_EWS.UpdateWorkpalceTableAll();</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -485,14 +485,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -885,6 +877,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1173,6 +1213,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1461,6 +1549,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1717,6 +1853,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2115,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2138,10 +2322,10 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -2158,7 +2342,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -2178,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -2212,7 +2396,7 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -2232,7 +2416,7 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>15</v>
@@ -2243,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2252,7 +2436,7 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
@@ -2267,10 +2451,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2304,16 +2489,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2327,7 +2512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2341,7 +2526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2355,7 +2540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +2554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2383,7 +2568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2397,7 +2582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2408,10 +2593,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2436,10 +2621,10 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2453,7 +2638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2472,17 +2657,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E9">
+  <autoFilter ref="A1:E14">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="formula"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:E16">
       <sortCondition ref="B1:B16"/>
     </sortState>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>Action</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>Update Customer Table Source</t>
-  </si>
-  <si>
-    <t>Success</t>
   </si>
   <si>
     <t>Update Customer Table Output</t>
@@ -925,70 +922,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2055" name="_xssf_cell_comment" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 7"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -996,7 +945,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="9525000" cy="9572625"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1021,6 +970,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2055" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1036,7 +1033,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 7"/>
+        <xdr:cNvPr id="2" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1084,7 +1081,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 7"/>
+        <xdr:cNvPr id="3" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1092,7 +1089,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11420475" cy="9525000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1132,7 +1129,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 7"/>
+        <xdr:cNvPr id="4" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1140,7 +1137,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8515350" cy="9525000"/>
+          <a:ext cx="11420475" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1175,12 +1172,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvPr id="5" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1188,7 +1185,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
+          <a:ext cx="8515350" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1228,7 +1225,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 7"/>
+        <xdr:cNvPr id="6" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1261,11 +1258,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1276,55 +1268,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3075" name="_xssf_cell_comment" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1332,7 +1281,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="8629650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1367,12 +1316,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 3"/>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1380,7 +1329,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="8629650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1405,6 +1354,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1420,7 +1417,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1428,7 +1425,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9448800" cy="9525000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1468,7 +1465,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvPr id="3" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1476,7 +1473,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9448800" cy="9525000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1511,12 +1508,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1524,7 +1521,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10153650" cy="9525000"/>
+          <a:ext cx="9448800" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1559,12 +1556,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvPr id="5" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1572,7 +1569,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="9525000"/>
+          <a:ext cx="9448800" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1597,70 +1594,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4099" name="_xssf_cell_comment" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1668,7 +1617,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10153650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1701,14 +1650,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 3"/>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1716,7 +1665,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10782300" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1749,14 +1698,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1764,7 +1713,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10782300" cy="7524750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1789,6 +1738,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1804,7 +1758,50 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvPr id="4099" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1852,7 +1849,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvPr id="3" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1900,7 +1897,199 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2237,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2248,6 +2437,7 @@
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="30" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.3">
@@ -2321,12 +2511,6 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2341,12 +2525,6 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2361,12 +2539,6 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2395,12 +2567,6 @@
       <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2415,31 +2581,19 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2608,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2495,7 +2649,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2621,7 +2775,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
@@ -2657,13 +2811,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Global Variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>
@@ -344,12 +344,18 @@
   </si>
   <si>
     <t>return LIB_EWS.UpdateWorkpalceTableAll();</t>
+  </si>
+  <si>
+    <t>Update predictive Model</t>
+  </si>
+  <si>
+    <t>return LIB_EWS.UpdatePredictiveModel();</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -970,70 +976,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2055" name="_xssf_cell_comment" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 7"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1041,7 +999,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="9525000" cy="9572625"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1066,6 +1024,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2055" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1081,7 +1087,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 7"/>
+        <xdr:cNvPr id="2" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1129,7 +1135,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 7"/>
+        <xdr:cNvPr id="3" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1137,7 +1143,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11420475" cy="9525000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1177,7 +1183,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 7"/>
+        <xdr:cNvPr id="4" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1185,7 +1191,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8515350" cy="9525000"/>
+          <a:ext cx="11420475" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1220,12 +1226,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvPr id="5" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1233,7 +1239,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
+          <a:ext cx="8515350" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1273,7 +1279,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 7"/>
+        <xdr:cNvPr id="6" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1321,7 +1327,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 7"/>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1354,11 +1360,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1369,55 +1370,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3075" name="_xssf_cell_comment" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1425,7 +1383,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="8629650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1460,12 +1418,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 3"/>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1473,7 +1431,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="8629650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1498,6 +1456,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1508,12 +1471,55 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvPr id="3075" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1521,7 +1527,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9448800" cy="9525000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1556,12 +1562,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvPr id="3" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1569,7 +1575,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9448800" cy="9525000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1604,12 +1610,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1617,7 +1623,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10153650" cy="9525000"/>
+          <a:ext cx="9448800" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1652,12 +1658,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvPr id="5" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1665,7 +1671,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="9525000"/>
+          <a:ext cx="9448800" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1700,12 +1706,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1713,7 +1719,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="7524750"/>
+          <a:ext cx="10153650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1738,70 +1744,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4099" name="_xssf_cell_comment" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1809,7 +1767,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10782300" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1842,14 +1800,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 3"/>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1857,7 +1815,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10782300" cy="7524750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1890,14 +1848,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1905,7 +1863,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
+          <a:ext cx="10782300" cy="7524750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1930,6 +1888,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1945,7 +1908,50 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvPr id="4099" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1993,7 +1999,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvPr id="3" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2041,7 +2047,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2089,7 +2095,199 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2201,6 +2399,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2236,6 +2451,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2426,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J9"/>
     </sheetView>
   </sheetViews>
@@ -2605,11 +2837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2652,7 +2883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2666,7 +2897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2680,7 +2911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2694,7 +2925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2708,7 +2939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2722,7 +2953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2736,21 +2967,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2758,10 +2989,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2769,30 +3000,30 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2800,10 +3031,10 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2811,22 +3042,31 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="formula"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:E15">
     <sortState ref="A2:E16">
       <sortCondition ref="B1:B16"/>
     </sortState>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>
@@ -1024,6 +1024,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1039,7 +1087,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1082,7 +1130,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1130,7 +1178,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1178,7 +1226,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1226,7 +1274,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1274,7 +1322,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1322,7 +1370,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1370,7 +1418,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1418,12 +1466,60 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1888,6 +1984,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2288,6 +2432,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2656,10 +2848,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2777,13 +2969,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2791,13 +2983,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -2805,13 +2997,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -2819,12 +3011,26 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2839,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Global Variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Action</t>
   </si>
@@ -268,98 +268,66 @@
     <t>Update_Nightly</t>
   </si>
   <si>
-    <t>Update Analysis table</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>[Core] UpdateFormulaForAllInstances</t>
-  </si>
-  <si>
-    <t>Update variable</t>
-  </si>
-  <si>
-    <t>Update Output table</t>
-  </si>
-  <si>
-    <t>Back Testing</t>
-  </si>
-  <si>
-    <t>Attribute Name</t>
-  </si>
-  <si>
-    <t>LastUpdateAnalysisUnit</t>
-  </si>
-  <si>
-    <t>Entity Type Name</t>
-  </si>
-  <si>
-    <t>LastVariableUpdateDate</t>
-  </si>
-  <si>
-    <t>LastUpdateOutput</t>
-  </si>
-  <si>
-    <t>LastUpdateBackTesting</t>
-  </si>
-  <si>
     <t>Execute in case of...</t>
   </si>
   <si>
     <t>of step...</t>
   </si>
   <si>
-    <t>Analysis_Unit</t>
+    <t>Italia</t>
   </si>
   <si>
-    <t>Update Workspace Plane Status</t>
+    <t>Formula</t>
   </si>
   <si>
-    <t>Update Workspace Plane Table</t>
+    <t>UpdateWorkflow (LIB_EWS)</t>
   </si>
   <si>
-    <t>formula</t>
+    <t>BIB</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>BIR</t>
   </si>
   <si>
-    <t>[Commons] Evaluate Formula</t>
+    <t>Koper</t>
   </si>
   <si>
-    <t>Workspace_Plan</t>
+    <t>Update Customer Unit Output</t>
   </si>
   <si>
-    <t>Update Customer Table Source</t>
+    <t>UpdateCustomerUnitOutput (LIB_EWS)</t>
   </si>
   <si>
-    <t>Update Customer Table Output</t>
+    <t>Param1</t>
   </si>
   <si>
-    <t>return LIB_EWS.UpdateCustomerUnitSource();</t>
+    <t>CUSTOMER</t>
   </si>
   <si>
-    <t>return LIB_EWS.UpdateCustomerUnitOutput();</t>
+    <t>COUNTERPARTY_BIB</t>
   </si>
   <si>
-    <t>return LIB_EWS.UpdateWorkpalceTableAll();</t>
+    <t>COUNTERPARTY_BIR</t>
   </si>
   <si>
-    <t>Update predictive Model</t>
-  </si>
-  <si>
-    <t>return LIB_EWS.UpdatePredictiveModel();</t>
+    <t>COUNTERPARTY_KOPER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,8 +457,121 @@
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,8 +583,176 @@
         <fgColor rgb="FFAC2524"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -511,16 +760,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -578,9 +955,51 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="40">
+    <cellStyle name="20% - Colore 1" xfId="1"/>
+    <cellStyle name="20% - Colore 2" xfId="2"/>
+    <cellStyle name="20% - Colore 3" xfId="3"/>
+    <cellStyle name="20% - Colore 4" xfId="4"/>
+    <cellStyle name="20% - Colore 5" xfId="5"/>
+    <cellStyle name="20% - Colore 6" xfId="6"/>
+    <cellStyle name="40% - Colore 1" xfId="7"/>
+    <cellStyle name="40% - Colore 2" xfId="8"/>
+    <cellStyle name="40% - Colore 3" xfId="9"/>
+    <cellStyle name="40% - Colore 4" xfId="10"/>
+    <cellStyle name="40% - Colore 5" xfId="11"/>
+    <cellStyle name="40% - Colore 6" xfId="12"/>
+    <cellStyle name="60% - Colore 1" xfId="13"/>
+    <cellStyle name="60% - Colore 2" xfId="14"/>
+    <cellStyle name="60% - Colore 3" xfId="15"/>
+    <cellStyle name="60% - Colore 4" xfId="16"/>
+    <cellStyle name="60% - Colore 5" xfId="17"/>
+    <cellStyle name="60% - Colore 6" xfId="18"/>
+    <cellStyle name="Calcolo" xfId="19"/>
+    <cellStyle name="Cella collegata" xfId="20"/>
+    <cellStyle name="Cella da controllare" xfId="21"/>
+    <cellStyle name="Colore 1" xfId="22"/>
+    <cellStyle name="Colore 2" xfId="23"/>
+    <cellStyle name="Colore 3" xfId="24"/>
+    <cellStyle name="Colore 4" xfId="25"/>
+    <cellStyle name="Colore 5" xfId="26"/>
+    <cellStyle name="Colore 6" xfId="27"/>
+    <cellStyle name="Neutrale" xfId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="29"/>
+    <cellStyle name="Testo avviso" xfId="30"/>
+    <cellStyle name="Testo descrittivo" xfId="31"/>
+    <cellStyle name="Titolo" xfId="32"/>
+    <cellStyle name="Titolo 1" xfId="33"/>
+    <cellStyle name="Titolo 2" xfId="34"/>
+    <cellStyle name="Titolo 3" xfId="35"/>
+    <cellStyle name="Titolo 4" xfId="36"/>
+    <cellStyle name="Totale" xfId="37"/>
+    <cellStyle name="Valore non valido" xfId="38"/>
+    <cellStyle name="Valore valido" xfId="39"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1072,6 +1491,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1087,7 +1554,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1130,7 +1597,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1178,7 +1645,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1226,7 +1693,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1274,7 +1741,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1322,7 +1789,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1370,7 +1837,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1418,7 +1885,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1466,7 +1933,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1514,12 +1981,60 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1567,7 +2082,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1610,7 +2125,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1658,7 +2173,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1706,7 +2221,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1754,7 +2269,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1802,7 +2317,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1850,7 +2365,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1898,7 +2413,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1946,7 +2461,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1994,12 +2509,60 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2480,6 +3043,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2814,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2848,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2890,22 +3501,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2913,13 +3524,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -2927,13 +3538,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -2941,13 +3552,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2955,13 +3566,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2969,69 +3580,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3043,7 +3598,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -3080,13 +3635,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3094,13 +3649,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3108,13 +3663,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3122,10 +3677,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -3136,143 +3691,15 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
+      <c r="D6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E15">
+  <autoFilter ref="A1:E1">
     <sortState ref="A2:E16">
       <sortCondition ref="B1:B16"/>
     </sortState>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Action</t>
   </si>
@@ -312,11 +312,17 @@
   <si>
     <t>COUNTERPARTY_KOPER</t>
   </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_ALEX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1539,6 +1545,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1554,7 +1608,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1597,7 +1651,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1645,7 +1699,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1693,7 +1747,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1741,7 +1795,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1755,6 +1809,246 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8515350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1794,7 +2088,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvPr id="11" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1837,204 +2131,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 7"/>
+        <xdr:cNvPr id="12" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2082,7 +2184,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2125,7 +2227,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2173,7 +2275,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2221,7 +2323,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2269,7 +2371,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2283,6 +2385,198 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9448800" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10153650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="7524750"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="7524750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2322,15 +2616,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10153650" cy="9525000"/>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2370,7 +2664,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvPr id="11" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2413,156 +2707,12 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="7524750"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="7524750"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvPr id="12" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3091,6 +3241,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3202,23 +3400,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3254,23 +3435,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3425,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3459,10 +3623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D13:D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3580,12 +3744,26 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3598,10 +3776,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3691,12 +3869,26 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
@@ -3714,7 +3906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
